--- a/dados/setorial-b3-05-12-2022-port.xlsx
+++ b/dados/setorial-b3-05-12-2022-port.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fd8dadff45c8312/obsidian/adsantos/Mestrado/BD/trabalhos/caderno-bd/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive\obsidian\adsantos\Mestrado\BD\trabalhos\caderno-bd\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F2D13625-6CBE-4794-AA00-B106F457CF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64931CB9-57B6-4989-8615-AD9C3AE10F4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B1320-B30D-441A-ABB3-741EE6FFA5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,17 @@
     <sheet name="original" sheetId="3" r:id="rId1"/>
     <sheet name="CLASSIFICAÇÃO SETORIAL" sheetId="4" r:id="rId2"/>
     <sheet name="IBOVDia_08-12-22" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CLASSIFICAÇÃO SETORIAL'!$A$1:$F$459</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'IBOVDia_08-12-22'!$A$1:$E$93</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'IBOVDia_08-12-22'!$A$1:$F$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">original!$A$1:$E$607</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="23" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="1230">
   <si>
     <t>SETOR ECONÔMICO</t>
   </si>
@@ -3717,6 +3721,24 @@
   </si>
   <si>
     <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>segmento2</t>
+  </si>
+  <si>
+    <t>codigo_base</t>
+  </si>
+  <si>
+    <t>Sum of part_percent</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
 </sst>
 </file>
@@ -4042,7 +4064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4253,12 +4275,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4277,11 +4293,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4310,33 +4349,2714 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[setorial-b3-05-12-2022-port.xlsx]Sheet1!PivotTable13</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Aluguel de carros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bancos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cervejas e Refrigerantes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exploração, Refino e Distribuição</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Minerais Metálicos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Motores, Compressores e Outros</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Papel e Celulose</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Serviços Financeiros Diversos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Telecomunicações</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1419999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A649-4C22-BD72-A7481D647AD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936B9DBA-F173-667E-9A0C-7B4604A7FEFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="adsantos" refreshedDate="44907.77642465278" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{19A57726-6F12-4421-87F0-5936E11079E7}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="IBOVDia_08_12_22"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="codigo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="codigo_base" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="acao" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="tipo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="qtde_teorica" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60358029" maxValue="5901731302"/>
+    </cacheField>
+    <cacheField name="part_percent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.03" maxValue="19.064" count="88">
+        <n v="0.33"/>
+        <n v="0.14899999999999999"/>
+        <n v="3.468"/>
+        <n v="0.26500000000000001"/>
+        <n v="0.25"/>
+        <n v="0.79100000000000004"/>
+        <n v="0.187"/>
+        <n v="3.573"/>
+        <n v="0.112"/>
+        <n v="1.0509999999999999"/>
+        <n v="0.34799999999999998"/>
+        <n v="0.98"/>
+        <n v="3.8159999999999998"/>
+        <n v="0.35499999999999998"/>
+        <n v="2.4910000000000001"/>
+        <n v="0.34200000000000003"/>
+        <n v="0.441"/>
+        <n v="1.4490000000000001"/>
+        <n v="0.39500000000000002"/>
+        <n v="0.63200000000000001"/>
+        <n v="0.80700000000000005"/>
+        <n v="0.23799999999999999"/>
+        <n v="0.19800000000000001"/>
+        <n v="0.62"/>
+        <n v="0.96099999999999997"/>
+        <n v="0.308"/>
+        <n v="0.20599999999999999"/>
+        <n v="6.6000000000000003E-2"/>
+        <n v="0.188"/>
+        <n v="0.109"/>
+        <n v="7.0000000000000007E-2"/>
+        <n v="3.1419999999999999"/>
+        <n v="0.64800000000000002"/>
+        <n v="0.49199999999999999"/>
+        <n v="0.255"/>
+        <n v="0.52200000000000002"/>
+        <n v="0.92600000000000005"/>
+        <n v="0.504"/>
+        <n v="1.4470000000000001"/>
+        <n v="0.307"/>
+        <n v="1.702"/>
+        <n v="0.46400000000000002"/>
+        <n v="7.5999999999999998E-2"/>
+        <n v="0.51200000000000001"/>
+        <n v="1.127"/>
+        <n v="0.84799999999999998"/>
+        <n v="0.19400000000000001"/>
+        <n v="8.3000000000000004E-2"/>
+        <n v="2.2170000000000001"/>
+        <n v="6.157"/>
+        <n v="1.204"/>
+        <n v="0.71899999999999997"/>
+        <n v="2.4649999999999999"/>
+        <n v="0.16400000000000001"/>
+        <n v="1.0569999999999999"/>
+        <n v="0.41799999999999998"/>
+        <n v="0.126"/>
+        <n v="3.6999999999999998E-2"/>
+        <n v="0.151"/>
+        <n v="0.122"/>
+        <n v="0.29299999999999998"/>
+        <n v="0.152"/>
+        <n v="3.8119999999999998"/>
+        <n v="5.72"/>
+        <n v="1.355"/>
+        <n v="0.03"/>
+        <n v="7.9000000000000001E-2"/>
+        <n v="1.4039999999999999"/>
+        <n v="0.216"/>
+        <n v="1.3180000000000001"/>
+        <n v="1.1240000000000001"/>
+        <n v="0.96499999999999997"/>
+        <n v="0.48899999999999999"/>
+        <n v="0.19"/>
+        <n v="0.42"/>
+        <n v="0.21"/>
+        <n v="1.905"/>
+        <n v="0.38200000000000001"/>
+        <n v="0.81399999999999995"/>
+        <n v="0.51300000000000001"/>
+        <n v="0.70799999999999996"/>
+        <n v="0.72199999999999998"/>
+        <n v="0.2"/>
+        <n v="19.064"/>
+        <n v="0.16200000000000001"/>
+        <n v="0.85899999999999999"/>
+        <n v="2.7280000000000002"/>
+        <n v="0.157"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="setor" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Petróleo, Gás e Biocombustíveis"/>
+        <s v="Consumo Cíclico"/>
+        <s v="Consumo não Cíclico"/>
+        <s v="Bens Industriais"/>
+        <s v="Financeiro"/>
+        <s v="Materiais Básicos"/>
+        <s v="Utilidade Pública"/>
+        <s v="Saúde"/>
+        <s v="Tecnologia da Informação"/>
+        <s v="Comunicações"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="subsetor" numFmtId="0">
+      <sharedItems count="28">
+        <s v="Petróleo, Gás e Biocombustíveis"/>
+        <s v="Tecidos, Vestuário e Calçados"/>
+        <s v="Bebidas"/>
+        <s v="Comércio"/>
+        <s v="Comércio e Distribuição"/>
+        <s v="Transporte"/>
+        <s v="Serviços Financeiros Diversos"/>
+        <s v="Intermediários Financeiros"/>
+        <s v="Previdência e Seguros"/>
+        <s v="Exploração de Imóveis"/>
+        <s v="Mineração"/>
+        <s v="Químicos"/>
+        <s v="Alimentos Processados"/>
+        <s v="Energia Elétrica"/>
+        <s v="Diversos"/>
+        <s v="Viagens e Lazer"/>
+        <s v="Construção Civil"/>
+        <s v="Madeira e Papel"/>
+        <s v="Material de Transporte"/>
+        <s v="Serviços Médico - Hospitalares, Análises e Diagnósticos"/>
+        <s v="Siderurgia e Metalurgia"/>
+        <s v="Produtos de Uso Pessoal e de Limpeza"/>
+        <s v="Programas e Serviços"/>
+        <s v="Computadores e Equipamentos"/>
+        <s v="Agropecuária"/>
+        <s v="Água e Saneamento"/>
+        <s v="Telecomunicações"/>
+        <s v="Máquinas e Equipamentos"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="segmento" numFmtId="0">
+      <sharedItems count="36">
+        <s v="Exploração, Refino e Distribuição"/>
+        <s v="Calçados"/>
+        <s v="Cervejas e Refrigerantes"/>
+        <s v="Produtos Diversos"/>
+        <s v="Tecidos, Vestuário e Calçados"/>
+        <s v="Alimentos"/>
+        <s v="Transporte Aéreo"/>
+        <s v="Serviços Financeiros Diversos"/>
+        <s v="Bancos"/>
+        <s v="Seguradoras"/>
+        <s v="Exploração de Imóveis"/>
+        <s v="Minerais Metálicos"/>
+        <s v="Petroquímicos"/>
+        <s v="Carnes e Derivados"/>
+        <s v="Exploração de Rodovias"/>
+        <s v="Telecomunicações"/>
+        <s v="Serviços Educacionais"/>
+        <s v="Viagens e Turismo"/>
+        <s v="Incorporações"/>
+        <s v="Madeira"/>
+        <s v="Material Aeronáutico e de Defesa"/>
+        <s v="Serviços Médico - Hospitalares, Análises e Diagnósticos"/>
+        <s v="Siderurgia"/>
+        <s v="Produtos de Uso Pessoal"/>
+        <s v="Medicamentos e Outros Produtos"/>
+        <s v="Resseguradoras"/>
+        <s v="Papel e Celulose"/>
+        <s v="Aluguel de carros"/>
+        <s v="Programas e Serviços"/>
+        <s v="Eletrodomésticos"/>
+        <s v="Computadores e Equipamentos"/>
+        <s v="Agricultura"/>
+        <s v="Transporte Ferroviário"/>
+        <s v="Água e Saneamento"/>
+        <s v="Açucar e Alcool"/>
+        <s v="Motores, Compressores e Outros"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
+  <r>
+    <s v="RRRP3"/>
+    <s v="RRRP"/>
+    <s v="3R PETROLEUM"/>
+    <s v="ON      NM"/>
+    <n v="200453863"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ALPA4"/>
+    <s v="ALPA"/>
+    <s v="ALPARGATAS"/>
+    <s v="PN      N1"/>
+    <n v="202765994"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ABEV3"/>
+    <s v="ABEV"/>
+    <s v="AMBEV S/A"/>
+    <s v="ON"/>
+    <n v="4386652506"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AMER3"/>
+    <s v="AMER"/>
+    <s v="AMERICANAS"/>
+    <s v="ON      NM"/>
+    <n v="596086291"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ARZZ3"/>
+    <s v="ARZZ"/>
+    <s v="AREZZO CO"/>
+    <s v="ON      NM"/>
+    <n v="60358029"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="ASAI3"/>
+    <s v="ASAI"/>
+    <s v="ASSAI"/>
+    <s v="ON      NM"/>
+    <n v="795949801"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AZUL4"/>
+    <s v="AZUL"/>
+    <s v="AZUL"/>
+    <s v="PN      N2"/>
+    <n v="327646296"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="B3SA3"/>
+    <s v="B3SA"/>
+    <s v="B3"/>
+    <s v="ON      NM"/>
+    <n v="5901731302"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="BPAN4"/>
+    <s v="BPAN"/>
+    <s v="BANCO PAN"/>
+    <s v="PN      N1"/>
+    <n v="341549703"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="BBSE3"/>
+    <s v="BBSE"/>
+    <s v="BBSEGURIDADE"/>
+    <s v="ON      NM"/>
+    <n v="671682536"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="BRML3"/>
+    <s v="BRML"/>
+    <s v="BR MALLS PAR"/>
+    <s v="ON      NM"/>
+    <n v="828273884"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="BBDC3"/>
+    <s v="BBDC"/>
+    <s v="BRADESCO"/>
+    <s v="ON  EJ  N1"/>
+    <n v="1508883586"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="BBDC4"/>
+    <s v="BBDC"/>
+    <s v="BRADESCO"/>
+    <s v="PN  EJ  N1"/>
+    <n v="5156077326"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="BRAP4"/>
+    <s v="BRAP"/>
+    <s v="BRADESPAR"/>
+    <s v="PN      N1"/>
+    <n v="251025058"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="BBAS3"/>
+    <s v="BBAS"/>
+    <s v="BRASIL"/>
+    <s v="ON      NM"/>
+    <n v="1420731069"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="BRKM5"/>
+    <s v="BRKM"/>
+    <s v="BRASKEM"/>
+    <s v="PNA     N1"/>
+    <n v="265212486"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="BRFS3"/>
+    <s v="BRFS"/>
+    <s v="BRF SA"/>
+    <s v="ON      NM"/>
+    <n v="1076512610"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="BPAC11"/>
+    <s v="BPAC"/>
+    <s v="BTGP BANCO"/>
+    <s v="UNT     N2"/>
+    <n v="1225470424"/>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="CRFB3"/>
+    <s v="CRFB"/>
+    <s v="CARREFOUR BR"/>
+    <s v="ON  EJ  NM"/>
+    <n v="528743156"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="CCRO3"/>
+    <s v="CCRO"/>
+    <s v="CCR SA"/>
+    <s v="ON      NM"/>
+    <n v="1115681435"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="CMIG4"/>
+    <s v="CMIG"/>
+    <s v="CEMIG"/>
+    <s v="PN      N1"/>
+    <n v="1442098974"/>
+    <x v="20"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="CIEL3"/>
+    <s v="CIEL"/>
+    <s v="CIELO"/>
+    <s v="ON      NM"/>
+    <n v="1095401258"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="COGN3"/>
+    <s v="COGN"/>
+    <s v="COGNA ON"/>
+    <s v="ON      NM"/>
+    <n v="1820405422"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="CPLE6"/>
+    <s v="CPLE"/>
+    <s v="COPEL"/>
+    <s v="PNB     N2"/>
+    <n v="1563365506"/>
+    <x v="23"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="CSAN3"/>
+    <s v="CSAN"/>
+    <s v="COSAN"/>
+    <s v="ON      NM"/>
+    <n v="1171063698"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="CPFE3"/>
+    <s v="CPFE"/>
+    <s v="CPFL ENERGIA"/>
+    <s v="ON      NM"/>
+    <n v="187732538"/>
+    <x v="25"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="CMIN3"/>
+    <s v="CMIN"/>
+    <s v="CSNMINERACAO"/>
+    <s v="ON      N2"/>
+    <n v="1110550596"/>
+    <x v="26"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="CVCB3"/>
+    <s v="CVCB"/>
+    <s v="CVC BRASIL"/>
+    <s v="ON      NM"/>
+    <n v="275967676"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="CYRE3"/>
+    <s v="CYRE"/>
+    <s v="CYRELA REALT"/>
+    <s v="ON      NM"/>
+    <n v="274142301"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="DXCO3"/>
+    <s v="DXCO"/>
+    <s v="DEXCO"/>
+    <s v="ON      NM"/>
+    <n v="274863424"/>
+    <x v="29"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="ECOR3"/>
+    <s v="ECOR"/>
+    <s v="ECORODOVIAS"/>
+    <s v="ON  ED  NM"/>
+    <n v="333657615"/>
+    <x v="30"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="ELET3"/>
+    <s v="ELET"/>
+    <s v="ELETROBRAS"/>
+    <s v="ON      N1"/>
+    <n v="1447696333"/>
+    <x v="31"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="ELET6"/>
+    <s v="ELET"/>
+    <s v="ELETROBRAS"/>
+    <s v="PNB     N1"/>
+    <n v="279941393"/>
+    <x v="32"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="EMBR3"/>
+    <s v="EMBR"/>
+    <s v="EMBRAER"/>
+    <s v="ON      NM"/>
+    <n v="734632205"/>
+    <x v="33"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="ENBR3"/>
+    <s v="ENBR"/>
+    <s v="ENERGIAS BR"/>
+    <s v="ON      NM"/>
+    <n v="246028184"/>
+    <x v="34"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="ENGI11"/>
+    <s v="ENGI"/>
+    <s v="ENERGISA"/>
+    <s v="UNT     N2"/>
+    <n v="248477689"/>
+    <x v="35"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="ENEV3"/>
+    <s v="ENEV"/>
+    <s v="ENEVA"/>
+    <s v="ON      NM"/>
+    <n v="1561135009"/>
+    <x v="36"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="EGIE3"/>
+    <s v="EGIE"/>
+    <s v="ENGIE BRASIL"/>
+    <s v="ON      NM"/>
+    <n v="255208461"/>
+    <x v="37"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="EQTL3"/>
+    <s v="EQTL"/>
+    <s v="EQUATORIAL"/>
+    <s v="ON      NM"/>
+    <n v="1100513485"/>
+    <x v="38"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="EZTC3"/>
+    <s v="EZTC"/>
+    <s v="EZTEC"/>
+    <s v="ON      NM"/>
+    <n v="94318339"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="FLRY3"/>
+    <s v="FLRY"/>
+    <s v="FLEURY"/>
+    <s v="ON      NM"/>
+    <n v="370847036"/>
+    <x v="39"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="GGBR4"/>
+    <s v="GGBR"/>
+    <s v="GERDAU"/>
+    <s v="PN      N1"/>
+    <n v="1111956242"/>
+    <x v="40"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="GOAU4"/>
+    <s v="GOAU"/>
+    <s v="GERDAU MET"/>
+    <s v="PN      N1"/>
+    <n v="686077578"/>
+    <x v="41"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="GOLL4"/>
+    <s v="GOLL"/>
+    <s v="GOL"/>
+    <s v="PN      N2"/>
+    <n v="190059275"/>
+    <x v="42"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="NTCO3"/>
+    <s v="NTCO"/>
+    <s v="GRUPO NATURA"/>
+    <s v="ON      NM"/>
+    <n v="835961011"/>
+    <x v="43"/>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="SOMA3"/>
+    <s v="SOMA"/>
+    <s v="GRUPO SOMA"/>
+    <s v="ON      NM"/>
+    <n v="490736222"/>
+    <x v="34"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="HAPV3"/>
+    <s v="HAPV"/>
+    <s v="HAPVIDA"/>
+    <s v="ON      NM"/>
+    <n v="4454740939"/>
+    <x v="44"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="HYPE3"/>
+    <s v="HYPE"/>
+    <s v="HYPERA"/>
+    <s v="ON      NM"/>
+    <n v="400842480"/>
+    <x v="45"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="IGTI11"/>
+    <s v="IGTI"/>
+    <s v="IGUATEMI S.A"/>
+    <s v="UNT     N1"/>
+    <n v="216457368"/>
+    <x v="46"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="IRBR3"/>
+    <s v="IRBR"/>
+    <s v="IRBBRASIL RE"/>
+    <s v="ON      NM"/>
+    <n v="2455237214"/>
+    <x v="47"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="ITSA4"/>
+    <s v="ITSA"/>
+    <s v="ITAUSA"/>
+    <s v="PN  EJ  N1"/>
+    <n v="5209666310"/>
+    <x v="48"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="ITUB4"/>
+    <s v="ITUB"/>
+    <s v="ITAUUNIBANCO"/>
+    <s v="PN  EJ  N1"/>
+    <n v="4799907051"/>
+    <x v="49"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="JBSS3"/>
+    <s v="JBSS"/>
+    <s v="JBS"/>
+    <s v="ON      NM"/>
+    <n v="1134986483"/>
+    <x v="50"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="KLBN11"/>
+    <s v="KLBN"/>
+    <s v="KLABIN S/A"/>
+    <s v="UNT     N2"/>
+    <n v="701899756"/>
+    <x v="51"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="RENT3"/>
+    <s v="RENT"/>
+    <s v="LOCALIZA"/>
+    <s v="ON      NM"/>
+    <n v="893978241"/>
+    <x v="52"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="LWSA3"/>
+    <s v="LWSA"/>
+    <s v="LOCAWEB"/>
+    <s v="ON      NM"/>
+    <n v="419466860"/>
+    <x v="53"/>
+    <x v="8"/>
+    <x v="22"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="LREN3"/>
+    <s v="LREN"/>
+    <s v="LOJAS RENNER"/>
+    <s v="ON      NM"/>
+    <n v="970515779"/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MGLU3"/>
+    <s v="MGLU"/>
+    <s v="MAGAZ LUIZA"/>
+    <s v="ON      NM"/>
+    <n v="2874188573"/>
+    <x v="55"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="MRFG3"/>
+    <s v="MRFG"/>
+    <s v="MARFRIG"/>
+    <s v="ON      NM"/>
+    <n v="316724584"/>
+    <x v="56"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="CASH3"/>
+    <s v="CASH"/>
+    <s v="MELIUZ"/>
+    <s v="ON      NM"/>
+    <n v="657963256"/>
+    <x v="57"/>
+    <x v="8"/>
+    <x v="22"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="BEEF3"/>
+    <s v="BEEF"/>
+    <s v="MINERVA"/>
+    <s v="ON      NM"/>
+    <n v="260409710"/>
+    <x v="58"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="MRVE3"/>
+    <s v="MRVE"/>
+    <s v="MRV"/>
+    <s v="ON      NM"/>
+    <n v="298436955"/>
+    <x v="59"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="MULT3"/>
+    <s v="MULT"/>
+    <s v="MULTIPLAN"/>
+    <s v="ON      N2"/>
+    <n v="268145328"/>
+    <x v="60"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="PCAR3"/>
+    <s v="PCAR"/>
+    <s v="P.ACUCAR-CBD"/>
+    <s v="ON      NM"/>
+    <n v="157889627"/>
+    <x v="61"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="PETR3"/>
+    <s v="PETR"/>
+    <s v="PETROBRAS"/>
+    <s v="ON      N2"/>
+    <n v="2684384823"/>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="PETR4"/>
+    <s v="PETR"/>
+    <s v="PETROBRAS"/>
+    <s v="PN      N2"/>
+    <n v="4566441248"/>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="PRIO3"/>
+    <s v="PRIO"/>
+    <s v="PETRORIO"/>
+    <s v="ON      NM"/>
+    <n v="839159130"/>
+    <x v="64"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="PETZ3"/>
+    <s v="PETZ"/>
+    <s v="PETZ"/>
+    <s v="ON      NM"/>
+    <n v="335672329"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="POSI3"/>
+    <s v="POSI"/>
+    <s v="POSITIVO TEC"/>
+    <s v="ON      NM"/>
+    <n v="73573028"/>
+    <x v="65"/>
+    <x v="8"/>
+    <x v="23"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <s v="QUAL3"/>
+    <s v="QUAL"/>
+    <s v="QUALICORP"/>
+    <s v="ON      NM"/>
+    <n v="277039277"/>
+    <x v="66"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="RADL3"/>
+    <s v="RADL"/>
+    <s v="RAIADROGASIL"/>
+    <s v="ON  EJ  NM"/>
+    <n v="1196069386"/>
+    <x v="67"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="RAIZ4"/>
+    <s v="RAIZ"/>
+    <s v="RAIZEN"/>
+    <s v="PN  ED  N2"/>
+    <n v="1246412032"/>
+    <x v="68"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="RDOR3"/>
+    <s v="RDOR"/>
+    <s v="REDE D OR"/>
+    <s v="ON      NM"/>
+    <n v="932048593"/>
+    <x v="69"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="RAIL3"/>
+    <s v="RAIL"/>
+    <s v="RUMO S.A."/>
+    <s v="ON      NM"/>
+    <n v="1215642613"/>
+    <x v="70"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="SBSP3"/>
+    <s v="SBSP"/>
+    <s v="SABESP"/>
+    <s v="ON      NM"/>
+    <n v="340002999"/>
+    <x v="71"/>
+    <x v="6"/>
+    <x v="25"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="SANB11"/>
+    <s v="SANB"/>
+    <s v="SANTANDER BR"/>
+    <s v="UNT"/>
+    <n v="355642848"/>
+    <x v="72"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SMTO3"/>
+    <s v="SMTO"/>
+    <s v="SAO MARTINHO"/>
+    <s v="ON      NM"/>
+    <n v="143294210"/>
+    <x v="73"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="CSNA3"/>
+    <s v="CSNA"/>
+    <s v="SID NACIONAL"/>
+    <s v="ON"/>
+    <n v="589695175"/>
+    <x v="74"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="SLCE3"/>
+    <s v="SLCE"/>
+    <s v="SLC AGRICOLA"/>
+    <s v="ON      NM"/>
+    <n v="96272020"/>
+    <x v="75"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="SULA11"/>
+    <s v="SULA"/>
+    <s v="SUL AMERICA"/>
+    <s v="UNT     N2"/>
+    <n v="284059601"/>
+    <x v="60"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="SUZB3"/>
+    <s v="SUZB"/>
+    <s v="SUZANO S.A."/>
+    <s v="ON      NM"/>
+    <n v="726823001"/>
+    <x v="76"/>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="TAEE11"/>
+    <s v="TAEE"/>
+    <s v="TAESA"/>
+    <s v="UNT     N2"/>
+    <n v="218568234"/>
+    <x v="77"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="VIVT3"/>
+    <s v="VIVT"/>
+    <s v="TELEF BRASIL"/>
+    <s v="ON"/>
+    <n v="429455552"/>
+    <x v="78"/>
+    <x v="9"/>
+    <x v="26"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="TIMS3"/>
+    <s v="TIMS"/>
+    <s v="TIM"/>
+    <s v="ON      NM"/>
+    <n v="808436195"/>
+    <x v="79"/>
+    <x v="9"/>
+    <x v="26"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="TOTS3"/>
+    <s v="TOTS"/>
+    <s v="TOTVS"/>
+    <s v="ON      NM"/>
+    <n v="519851955"/>
+    <x v="80"/>
+    <x v="8"/>
+    <x v="22"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="UGPA3"/>
+    <s v="UGPA"/>
+    <s v="ULTRAPAR"/>
+    <s v="ON      NM"/>
+    <n v="1087887681"/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="USIM5"/>
+    <s v="USIM"/>
+    <s v="USIMINAS"/>
+    <s v="PNA     N1"/>
+    <n v="515014562"/>
+    <x v="82"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="VALE3"/>
+    <s v="VALE"/>
+    <s v="VALE"/>
+    <s v="ON      NM"/>
+    <n v="4547296398"/>
+    <x v="83"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="VIIA3"/>
+    <s v="VIIA"/>
+    <s v="VIA"/>
+    <s v="ON      NM"/>
+    <n v="1576975642"/>
+    <x v="84"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="VBBR3"/>
+    <s v="VBBR"/>
+    <s v="VIBRA"/>
+    <s v="ON      NM"/>
+    <n v="1114442976"/>
+    <x v="85"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="WEGE3"/>
+    <s v="WEGE"/>
+    <s v="WEG"/>
+    <s v="ON      NM"/>
+    <n v="1481593024"/>
+    <x v="86"/>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <s v="YDUQ3"/>
+    <s v="YDUQ"/>
+    <s v="YDUQS PART"/>
+    <s v="ON      NM"/>
+    <n v="296015511"/>
+    <x v="87"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD622AA5-FCF8-4506-8690-E851EB209ED8}" name="PivotTable13" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="89">
+        <item h="1" x="65"/>
+        <item h="1" x="57"/>
+        <item h="1" x="27"/>
+        <item h="1" x="30"/>
+        <item h="1" x="42"/>
+        <item h="1" x="66"/>
+        <item h="1" x="47"/>
+        <item h="1" x="29"/>
+        <item h="1" x="8"/>
+        <item h="1" x="59"/>
+        <item h="1" x="56"/>
+        <item h="1" x="1"/>
+        <item h="1" x="58"/>
+        <item h="1" x="61"/>
+        <item h="1" x="87"/>
+        <item h="1" x="84"/>
+        <item h="1" x="53"/>
+        <item h="1" x="6"/>
+        <item h="1" x="28"/>
+        <item h="1" x="73"/>
+        <item h="1" x="46"/>
+        <item h="1" x="22"/>
+        <item h="1" x="82"/>
+        <item h="1" x="26"/>
+        <item h="1" x="75"/>
+        <item h="1" x="68"/>
+        <item h="1" x="21"/>
+        <item h="1" x="4"/>
+        <item h="1" x="34"/>
+        <item h="1" x="3"/>
+        <item h="1" x="60"/>
+        <item h="1" x="39"/>
+        <item h="1" x="25"/>
+        <item h="1" x="0"/>
+        <item h="1" x="15"/>
+        <item h="1" x="10"/>
+        <item h="1" x="13"/>
+        <item h="1" x="77"/>
+        <item h="1" x="18"/>
+        <item h="1" x="55"/>
+        <item h="1" x="74"/>
+        <item h="1" x="16"/>
+        <item h="1" x="41"/>
+        <item h="1" x="72"/>
+        <item h="1" x="33"/>
+        <item h="1" x="37"/>
+        <item h="1" x="43"/>
+        <item h="1" x="79"/>
+        <item h="1" x="35"/>
+        <item h="1" x="23"/>
+        <item h="1" x="19"/>
+        <item h="1" x="32"/>
+        <item h="1" x="80"/>
+        <item h="1" x="51"/>
+        <item h="1" x="81"/>
+        <item h="1" x="5"/>
+        <item h="1" x="20"/>
+        <item h="1" x="78"/>
+        <item h="1" x="45"/>
+        <item h="1" x="85"/>
+        <item h="1" x="36"/>
+        <item h="1" x="24"/>
+        <item h="1" x="71"/>
+        <item h="1" x="11"/>
+        <item h="1" x="9"/>
+        <item h="1" x="54"/>
+        <item h="1" x="70"/>
+        <item h="1" x="44"/>
+        <item h="1" x="50"/>
+        <item h="1" x="69"/>
+        <item h="1" x="64"/>
+        <item h="1" x="67"/>
+        <item h="1" x="38"/>
+        <item h="1" x="17"/>
+        <item h="1" x="40"/>
+        <item x="76"/>
+        <item x="48"/>
+        <item x="52"/>
+        <item x="14"/>
+        <item x="86"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="63"/>
+        <item x="49"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="24"/>
+        <item x="25"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="37">
+        <item x="34"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="12"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of part_percent" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{E6C29B5A-64B6-4C1A-B3F3-EC953798C12F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="10" unboundColumnsRight="3">
+    <queryTableFields count="9">
       <queryTableField id="1" name="codigo" tableColumnId="1"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="2" name="acao" tableColumnId="2"/>
       <queryTableField id="3" name="tipo" tableColumnId="3"/>
       <queryTableField id="4" name="qtde_teorica" tableColumnId="4"/>
       <queryTableField id="5" name="part_percent" tableColumnId="5"/>
+      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F80A699C-B140-4CC3-A059-56E299F3AF12}" name="IBOVDia_08_12_22" displayName="IBOVDia_08_12_22" ref="A1:E93" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E93" xr:uid="{F80A699C-B140-4CC3-A059-56E299F3AF12}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4BE88230-2AF3-483A-A971-BDB9BBC643FC}" uniqueName="1" name="codigo" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5BF96EC7-4FD0-41A8-BCC5-FA9EC40A1A80}" uniqueName="2" name="acao" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CFC913F7-8033-4870-B1B1-7CFE3FE2CA45}" uniqueName="3" name="tipo" queryTableFieldId="3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F38A38E6-B22D-4662-9542-3722311D163F}" name="Table3" displayName="Table3" ref="A1:F459" totalsRowShown="0">
+  <autoFilter ref="A1:F459" xr:uid="{F38A38E6-B22D-4662-9542-3722311D163F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3EDB437C-7AC4-4380-A7BE-B613E1BE178C}" name="setor"/>
+    <tableColumn id="2" xr3:uid="{6FB9CBDA-1E64-47BF-BF19-6BD5480701B9}" name="subsetor"/>
+    <tableColumn id="3" xr3:uid="{85872D79-780E-466B-8A20-41C83826ED84}" name="segmento"/>
+    <tableColumn id="4" xr3:uid="{59E0F536-AF04-4DED-B083-14DE18C540DC}" name="empresa"/>
+    <tableColumn id="5" xr3:uid="{4BECC892-5659-40DE-8A68-5C2C80B5272E}" name="codigo"/>
+    <tableColumn id="6" xr3:uid="{39AFE589-7909-4E8A-8219-F7433B4F278E}" name="segmento2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F80A699C-B140-4CC3-A059-56E299F3AF12}" name="IBOVDia_08_12_22" displayName="IBOVDia_08_12_22" ref="A1:I93" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I93" xr:uid="{F80A699C-B140-4CC3-A059-56E299F3AF12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4BE88230-2AF3-483A-A971-BDB9BBC643FC}" uniqueName="1" name="codigo" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{87651334-35D2-42CE-BDFC-CC426C7C01B3}" uniqueName="8" name="codigo_base" queryTableFieldId="8" dataDxfId="3">
+      <calculatedColumnFormula>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5BF96EC7-4FD0-41A8-BCC5-FA9EC40A1A80}" uniqueName="2" name="acao" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CFC913F7-8033-4870-B1B1-7CFE3FE2CA45}" uniqueName="3" name="tipo" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{38CC5788-EE3A-4CFA-B1F2-F1C3E1E9C8C1}" uniqueName="4" name="qtde_teorica" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{0D4AFA3E-C474-4796-96D3-740078C77858}" uniqueName="5" name="part_percent" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{2AD7CE85-E79A-4114-B0DF-A9AE85AA941D}" uniqueName="6" name="setor" queryTableFieldId="6" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CFC6C4C7-FC27-4CBE-BCFC-4A5B912E81BF}" uniqueName="9" name="subsetor" queryTableFieldId="9" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{356BC65D-28D8-4875-A757-06E4EADD847E}" uniqueName="7" name="segmento" queryTableFieldId="7" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4665,7 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G608"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A493" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A480" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
@@ -4681,27 +7401,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -4711,13 +7431,13 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="98" t="s">
@@ -4726,9 +7446,9 @@
       <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:7" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
@@ -4932,13 +7652,13 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="98" t="s">
@@ -4947,9 +7667,9 @@
       <c r="E25" s="99"/>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="30" t="s">
         <v>3</v>
       </c>
@@ -5478,13 +8198,13 @@
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="100" t="s">
+      <c r="A71" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="100" t="s">
+      <c r="B71" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="100" t="s">
+      <c r="C71" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="98" t="s">
@@ -5493,9 +8213,9 @@
       <c r="E71" s="99"/>
     </row>
     <row r="72" spans="1:5" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="101"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="101"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="30" t="s">
         <v>3</v>
       </c>
@@ -6574,13 +9294,13 @@
       <c r="E164" s="6"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="100" t="s">
+      <c r="A165" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="100" t="s">
+      <c r="B165" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="100" t="s">
+      <c r="C165" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D165" s="98" t="s">
@@ -6589,9 +9309,9 @@
       <c r="E165" s="99"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="101"/>
-      <c r="B166" s="101"/>
-      <c r="C166" s="101"/>
+      <c r="A166" s="107"/>
+      <c r="B166" s="107"/>
+      <c r="C166" s="107"/>
       <c r="D166" s="30" t="s">
         <v>3</v>
       </c>
@@ -7078,13 +9798,13 @@
       <c r="E206" s="6"/>
     </row>
     <row r="207" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="100" t="s">
+      <c r="A207" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="100" t="s">
+      <c r="B207" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C207" s="100" t="s">
+      <c r="C207" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D207" s="98" t="s">
@@ -7093,9 +9813,9 @@
       <c r="E207" s="99"/>
     </row>
     <row r="208" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="101"/>
-      <c r="B208" s="101"/>
-      <c r="C208" s="101"/>
+      <c r="A208" s="107"/>
+      <c r="B208" s="107"/>
+      <c r="C208" s="107"/>
       <c r="D208" s="30" t="s">
         <v>3</v>
       </c>
@@ -7901,13 +10621,13 @@
       <c r="E275" s="6"/>
     </row>
     <row r="276" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="100" t="s">
+      <c r="A276" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B276" s="100" t="s">
+      <c r="B276" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C276" s="100" t="s">
+      <c r="C276" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D276" s="98" t="s">
@@ -7916,9 +10636,9 @@
       <c r="E276" s="99"/>
     </row>
     <row r="277" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="101"/>
-      <c r="B277" s="101"/>
-      <c r="C277" s="101"/>
+      <c r="A277" s="107"/>
+      <c r="B277" s="107"/>
+      <c r="C277" s="107"/>
       <c r="D277" s="30" t="s">
         <v>3</v>
       </c>
@@ -8486,13 +11206,13 @@
       <c r="E324" s="6"/>
     </row>
     <row r="325" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="100" t="s">
+      <c r="A325" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B325" s="100" t="s">
+      <c r="B325" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C325" s="100" t="s">
+      <c r="C325" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D325" s="98" t="s">
@@ -8501,9 +11221,9 @@
       <c r="E325" s="99"/>
     </row>
     <row r="326" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="101"/>
-      <c r="B326" s="101"/>
-      <c r="C326" s="101"/>
+      <c r="A326" s="107"/>
+      <c r="B326" s="107"/>
+      <c r="C326" s="107"/>
       <c r="D326" s="30" t="s">
         <v>3</v>
       </c>
@@ -8875,13 +11595,13 @@
       <c r="E355" s="6"/>
     </row>
     <row r="356" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="100" t="s">
+      <c r="A356" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B356" s="100" t="s">
+      <c r="B356" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C356" s="100" t="s">
+      <c r="C356" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D356" s="98" t="s">
@@ -8890,9 +11610,9 @@
       <c r="E356" s="99"/>
     </row>
     <row r="357" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="101"/>
-      <c r="B357" s="101"/>
-      <c r="C357" s="101"/>
+      <c r="A357" s="107"/>
+      <c r="B357" s="107"/>
+      <c r="C357" s="107"/>
       <c r="D357" s="30" t="s">
         <v>3</v>
       </c>
@@ -9179,13 +11899,13 @@
       <c r="E379" s="6"/>
     </row>
     <row r="380" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="100" t="s">
+      <c r="A380" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B380" s="100" t="s">
+      <c r="B380" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C380" s="100" t="s">
+      <c r="C380" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D380" s="98" t="s">
@@ -9194,9 +11914,9 @@
       <c r="E380" s="99"/>
     </row>
     <row r="381" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="101"/>
-      <c r="B381" s="101"/>
-      <c r="C381" s="101"/>
+      <c r="A381" s="107"/>
+      <c r="B381" s="107"/>
+      <c r="C381" s="107"/>
       <c r="D381" s="30" t="s">
         <v>3</v>
       </c>
@@ -9369,13 +12089,13 @@
       <c r="E395" s="6"/>
     </row>
     <row r="396" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="100" t="s">
+      <c r="A396" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B396" s="100" t="s">
+      <c r="B396" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C396" s="100" t="s">
+      <c r="C396" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D396" s="98" t="s">
@@ -9384,9 +12104,9 @@
       <c r="E396" s="99"/>
     </row>
     <row r="397" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="101"/>
-      <c r="B397" s="101"/>
-      <c r="C397" s="101"/>
+      <c r="A397" s="107"/>
+      <c r="B397" s="107"/>
+      <c r="C397" s="107"/>
       <c r="D397" s="30" t="s">
         <v>3</v>
       </c>
@@ -10210,13 +12930,13 @@
       <c r="E466" s="6"/>
     </row>
     <row r="467" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="100" t="s">
+      <c r="A467" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B467" s="100" t="s">
+      <c r="B467" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C467" s="100" t="s">
+      <c r="C467" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D467" s="98" t="s">
@@ -10225,9 +12945,9 @@
       <c r="E467" s="99"/>
     </row>
     <row r="468" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="101"/>
-      <c r="B468" s="101"/>
-      <c r="C468" s="101"/>
+      <c r="A468" s="107"/>
+      <c r="B468" s="107"/>
+      <c r="C468" s="107"/>
       <c r="D468" s="30" t="s">
         <v>3</v>
       </c>
@@ -11106,13 +13826,13 @@
       <c r="E542" s="6"/>
     </row>
     <row r="543" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="100" t="s">
+      <c r="A543" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B543" s="100" t="s">
+      <c r="B543" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C543" s="100" t="s">
+      <c r="C543" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D543" s="98" t="s">
@@ -11121,9 +13841,9 @@
       <c r="E543" s="99"/>
     </row>
     <row r="544" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="101"/>
-      <c r="B544" s="101"/>
-      <c r="C544" s="101"/>
+      <c r="A544" s="107"/>
+      <c r="B544" s="107"/>
+      <c r="C544" s="107"/>
       <c r="D544" s="30" t="s">
         <v>3</v>
       </c>
@@ -11460,13 +14180,13 @@
       <c r="E571" s="6"/>
     </row>
     <row r="572" spans="1:7" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="100" t="s">
+      <c r="A572" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B572" s="100" t="s">
+      <c r="B572" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C572" s="100" t="s">
+      <c r="C572" s="106" t="s">
         <v>2</v>
       </c>
       <c r="D572" s="98" t="s">
@@ -11475,9 +14195,9 @@
       <c r="E572" s="99"/>
     </row>
     <row r="573" spans="1:7" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="101"/>
-      <c r="B573" s="101"/>
-      <c r="C573" s="101"/>
+      <c r="A573" s="107"/>
+      <c r="B573" s="107"/>
+      <c r="C573" s="107"/>
       <c r="D573" s="30" t="s">
         <v>3</v>
       </c>
@@ -11835,13 +14555,36 @@
     <sortCondition ref="C432:C433"/>
   </sortState>
   <mergeCells count="53">
-    <mergeCell ref="D467:E467"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="D572:E572"/>
+    <mergeCell ref="A543:A544"/>
+    <mergeCell ref="B543:B544"/>
+    <mergeCell ref="C543:C544"/>
+    <mergeCell ref="A572:A573"/>
+    <mergeCell ref="B572:B573"/>
+    <mergeCell ref="C572:C573"/>
+    <mergeCell ref="D543:E543"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="C467:C468"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="B356:B357"/>
+    <mergeCell ref="C356:C357"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D165:E165"/>
     <mergeCell ref="D71:E71"/>
@@ -11858,36 +14601,13 @@
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="A165:A166"/>
     <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="A380:A381"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="C396:C397"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="B467:B468"/>
-    <mergeCell ref="C467:C468"/>
-    <mergeCell ref="D572:E572"/>
-    <mergeCell ref="A543:A544"/>
-    <mergeCell ref="B543:B544"/>
-    <mergeCell ref="C543:C544"/>
-    <mergeCell ref="A572:A573"/>
-    <mergeCell ref="B572:B573"/>
-    <mergeCell ref="C572:C573"/>
-    <mergeCell ref="D543:E543"/>
+    <mergeCell ref="D467:E467"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="D380:E380"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -11910,8 +14630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66101E8B-D639-48AB-93FC-A3362DF05D35}">
   <dimension ref="A1:F460"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E459" sqref="E2:E459"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11940,7 +14660,7 @@
         <v>1066</v>
       </c>
       <c r="F1" t="s">
-        <v>1062</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -20641,1605 +23361,3096 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCCFD48-1EB5-4766-AE31-1B0A8A6262CD}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1066</v>
       </c>
       <c r="B1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1" t="s">
         <v>1067</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1068</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1069</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1071</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>RRRP</v>
+      </c>
+      <c r="C2" t="s">
         <v>889</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1072</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>200453863</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H2" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I2" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1073</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ALPA</v>
+      </c>
+      <c r="C3" t="s">
         <v>1074</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1075</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>202765994</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H3" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Tecidos, Vestuário e Calçados</v>
+      </c>
+      <c r="I3" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Calçados</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ABEV</v>
+      </c>
+      <c r="C4" t="s">
         <v>686</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1077</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4386652506</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.468</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H4" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Bebidas</v>
+      </c>
+      <c r="I4" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Cervejas e Refrigerantes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1078</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>AMER</v>
+      </c>
+      <c r="C5" t="s">
         <v>972</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1072</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>596086291</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H5" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I5" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Produtos Diversos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1079</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ARZZ</v>
+      </c>
+      <c r="C6" t="s">
         <v>1080</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1072</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>60358029</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H6" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I6" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Tecidos, Vestuário e Calçados</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1081</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ASAI</v>
+      </c>
+      <c r="C7" t="s">
         <v>926</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1072</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>795949801</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H7" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio e Distribuição</v>
+      </c>
+      <c r="I7" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Alimentos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1082</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>AZUL</v>
+      </c>
+      <c r="C8" t="s">
         <v>737</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1083</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>327646296</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H8" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Transporte</v>
+      </c>
+      <c r="I8" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Transporte Aéreo</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1084</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>B3SA</v>
+      </c>
+      <c r="C9" t="s">
         <v>1085</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1072</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5901731302</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3.573</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H9" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Serviços Financeiros Diversos</v>
+      </c>
+      <c r="I9" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Financeiros Diversos</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1086</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BPAN</v>
+      </c>
+      <c r="C10" t="s">
         <v>691</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1075</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>341549703</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H10" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I10" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1087</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BBSE</v>
+      </c>
+      <c r="C11" t="s">
         <v>662</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1072</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>671682536</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.0509999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H11" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="I11" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Seguradoras</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1088</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BRML</v>
+      </c>
+      <c r="C12" t="s">
         <v>574</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1072</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>828273884</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.34799999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H12" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Exploração de Imóveis</v>
+      </c>
+      <c r="I12" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração de Imóveis</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1089</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BBDC</v>
+      </c>
+      <c r="C13" t="s">
         <v>1090</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1091</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1508883586</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H13" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I13" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1092</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BBDC</v>
+      </c>
+      <c r="C14" t="s">
         <v>1090</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1093</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5156077326</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3.8159999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H14" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I14" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1094</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BRAP</v>
+      </c>
+      <c r="C15" t="s">
         <v>1095</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1075</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>251025058</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H15" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Mineração</v>
+      </c>
+      <c r="I15" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Minerais Metálicos</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1096</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BBAS</v>
+      </c>
+      <c r="C16" t="s">
         <v>1097</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>1072</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1420731069</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.4910000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H16" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I16" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1098</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BRKM</v>
+      </c>
+      <c r="C17" t="s">
         <v>1099</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>1100</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>265212486</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H17" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Químicos</v>
+      </c>
+      <c r="I17" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Petroquímicos</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BRFS</v>
+      </c>
+      <c r="C18" t="s">
         <v>1102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1072</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1076512610</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H18" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Alimentos Processados</v>
+      </c>
+      <c r="I18" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Carnes e Derivados</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1103</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BPAC</v>
+      </c>
+      <c r="C19" t="s">
         <v>642</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>1104</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1225470424</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.4490000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H19" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I19" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1105</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CRFB</v>
+      </c>
+      <c r="C20" t="s">
         <v>744</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1106</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>528743156</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.39500000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H20" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio e Distribuição</v>
+      </c>
+      <c r="I20" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Alimentos</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1107</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CCRO</v>
+      </c>
+      <c r="C21" t="s">
         <v>1108</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>1072</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1115681435</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H21" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Transporte</v>
+      </c>
+      <c r="I21" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração de Rodovias</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1109</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CMIG</v>
+      </c>
+      <c r="C22" t="s">
         <v>1110</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>1075</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1442098974</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.80700000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H22" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I22" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1111</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CIEL</v>
+      </c>
+      <c r="C23" t="s">
         <v>1112</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>1072</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1095401258</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H23" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Serviços Financeiros Diversos</v>
+      </c>
+      <c r="I23" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Financeiros Diversos</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1113</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>COGN</v>
+      </c>
+      <c r="C24" t="s">
         <v>819</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>1072</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1820405422</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H24" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Diversos</v>
+      </c>
+      <c r="I24" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Educacionais</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1114</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CPLE</v>
+      </c>
+      <c r="C25" t="s">
         <v>1115</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>1116</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1563365506</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H25" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I25" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1117</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CSAN</v>
+      </c>
+      <c r="C26" t="s">
         <v>1118</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>1072</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1171063698</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.96099999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H26" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I26" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1119</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CPFE</v>
+      </c>
+      <c r="C27" t="s">
         <v>428</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1072</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>187732538</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.308</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H27" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I27" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1120</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CMIN</v>
+      </c>
+      <c r="C28" t="s">
         <v>923</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1121</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1110550596</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H28" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Mineração</v>
+      </c>
+      <c r="I28" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Minerais Metálicos</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1122</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CVCB</v>
+      </c>
+      <c r="C29" t="s">
         <v>684</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>1072</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>275967676</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H29" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Viagens e Lazer</v>
+      </c>
+      <c r="I29" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Viagens e Turismo</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1123</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CYRE</v>
+      </c>
+      <c r="C30" t="s">
         <v>1030</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>1072</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>274142301</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H30" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Construção Civil</v>
+      </c>
+      <c r="I30" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Incorporações</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1124</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>DXCO</v>
+      </c>
+      <c r="C31" t="s">
         <v>1010</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>1072</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>274863424</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H31" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Madeira e Papel</v>
+      </c>
+      <c r="I31" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Madeira</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1125</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ECOR</v>
+      </c>
+      <c r="C32" t="s">
         <v>1126</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>1127</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>333657615</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H32" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Transporte</v>
+      </c>
+      <c r="I32" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração de Rodovias</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1128</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ELET</v>
+      </c>
+      <c r="C33" t="s">
         <v>1129</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1130</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1447696333</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3.1419999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H33" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I33" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ELET</v>
+      </c>
+      <c r="C34" t="s">
         <v>1129</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>1132</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>279941393</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H34" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I34" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1133</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>EMBR</v>
+      </c>
+      <c r="C35" t="s">
         <v>1134</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>1072</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>734632205</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.49199999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H35" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Material de Transporte</v>
+      </c>
+      <c r="I35" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Material Aeronáutico e de Defesa</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1135</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ENBR</v>
+      </c>
+      <c r="C36" t="s">
         <v>1136</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>1072</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>246028184</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H36" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I36" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1137</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ENGI</v>
+      </c>
+      <c r="C37" t="s">
         <v>1138</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>1104</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>248477689</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.52200000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H37" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I37" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ENEV</v>
+      </c>
+      <c r="C38" t="s">
         <v>669</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>1072</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1561135009</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.92600000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H38" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I38" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1140</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>EGIE</v>
+      </c>
+      <c r="C39" t="s">
         <v>721</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>1072</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>255208461</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.504</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H39" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I39" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1141</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>EQTL</v>
+      </c>
+      <c r="C40" t="s">
         <v>1142</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>1072</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1100513485</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1.4470000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H40" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I40" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1143</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>EZTC</v>
+      </c>
+      <c r="C41" t="s">
         <v>1144</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>1072</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>94318339</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H41" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Construção Civil</v>
+      </c>
+      <c r="I41" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Incorporações</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1145</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>FLRY</v>
+      </c>
+      <c r="C42" t="s">
         <v>1146</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>1072</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>370847036</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Saúde</v>
+      </c>
+      <c r="H42" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+      <c r="I42" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1147</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>GGBR</v>
+      </c>
+      <c r="C43" t="s">
         <v>1148</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>1075</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1111956242</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.702</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H43" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Siderurgia e Metalurgia</v>
+      </c>
+      <c r="I43" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Siderurgia</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1149</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>GOAU</v>
+      </c>
+      <c r="C44" t="s">
         <v>1150</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>1075</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>686077578</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H44" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Siderurgia e Metalurgia</v>
+      </c>
+      <c r="I44" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Siderurgia</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1151</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>GOLL</v>
+      </c>
+      <c r="C45" t="s">
         <v>1152</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>1083</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>190059275</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H45" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Transporte</v>
+      </c>
+      <c r="I45" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Transporte Aéreo</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1153</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>NTCO</v>
+      </c>
+      <c r="C46" t="s">
         <v>1154</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>1072</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>835961011</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H46" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Produtos de Uso Pessoal e de Limpeza</v>
+      </c>
+      <c r="I46" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Produtos de Uso Pessoal</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1155</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SOMA</v>
+      </c>
+      <c r="C47" t="s">
         <v>848</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>1072</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>490736222</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H47" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I47" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Tecidos, Vestuário e Calçados</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1156</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>HAPV</v>
+      </c>
+      <c r="C48" t="s">
         <v>773</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1072</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>4454740939</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1.127</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Saúde</v>
+      </c>
+      <c r="H48" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+      <c r="I48" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1157</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>HYPE</v>
+      </c>
+      <c r="C49" t="s">
         <v>764</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>1072</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>400842480</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.84799999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Saúde</v>
+      </c>
+      <c r="H49" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio e Distribuição</v>
+      </c>
+      <c r="I49" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Medicamentos e Outros Produtos</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1158</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>IGTI</v>
+      </c>
+      <c r="C50" t="s">
         <v>1032</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1159</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>216457368</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H50" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Exploração de Imóveis</v>
+      </c>
+      <c r="I50" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração de Imóveis</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1160</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>IRBR</v>
+      </c>
+      <c r="C51" t="s">
         <v>746</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1072</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2455237214</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H51" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="I51" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Resseguradoras</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1161</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ITSA</v>
+      </c>
+      <c r="C52" t="s">
         <v>1162</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1093</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>5209666310</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>2.2170000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H52" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I52" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1163</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>ITUB</v>
+      </c>
+      <c r="C53" t="s">
         <v>520</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1093</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>4799907051</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6.157</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H53" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I53" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1164</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>JBSS</v>
+      </c>
+      <c r="C54" t="s">
         <v>1165</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1072</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1134986483</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1.204</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H54" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Alimentos Processados</v>
+      </c>
+      <c r="I54" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Carnes e Derivados</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1166</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>KLBN</v>
+      </c>
+      <c r="C55" t="s">
         <v>1167</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>1104</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>701899756</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H55" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Madeira e Papel</v>
+      </c>
+      <c r="I55" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Papel e Celulose</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1168</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>RENT</v>
+      </c>
+      <c r="C56" t="s">
         <v>1169</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>1072</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>893978241</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>2.4649999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H56" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Diversos</v>
+      </c>
+      <c r="I56" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Aluguel de carros</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1170</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>LWSA</v>
+      </c>
+      <c r="C57" t="s">
         <v>839</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>1072</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>419466860</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="H57" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Programas e Serviços</v>
+      </c>
+      <c r="I57" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Programas e Serviços</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1171</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>LREN</v>
+      </c>
+      <c r="C58" t="s">
         <v>385</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>1072</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>970515779</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1.0569999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H58" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I58" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Tecidos, Vestuário e Calçados</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1172</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>MGLU</v>
+      </c>
+      <c r="C59" t="s">
         <v>1173</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>1072</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>2874188573</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.41799999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H59" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I59" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Eletrodomésticos</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1174</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>MRFG</v>
+      </c>
+      <c r="C60" t="s">
         <v>1175</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1072</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>316724584</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.126</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H60" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Alimentos Processados</v>
+      </c>
+      <c r="I60" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Carnes e Derivados</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1176</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CASH</v>
+      </c>
+      <c r="C61" t="s">
         <v>883</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>1072</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>657963256</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="H61" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Programas e Serviços</v>
+      </c>
+      <c r="I61" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Programas e Serviços</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1177</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>BEEF</v>
+      </c>
+      <c r="C62" t="s">
         <v>1178</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>1072</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>260409710</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H62" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Alimentos Processados</v>
+      </c>
+      <c r="I62" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Carnes e Derivados</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1179</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>MRVE</v>
+      </c>
+      <c r="C63" t="s">
         <v>1180</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>1072</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>298436955</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H63" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Construção Civil</v>
+      </c>
+      <c r="I63" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Incorporações</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1181</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>MULT</v>
+      </c>
+      <c r="C64" t="s">
         <v>1182</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>1121</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>268145328</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G64" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H64" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Exploração de Imóveis</v>
+      </c>
+      <c r="I64" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração de Imóveis</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1183</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>PCAR</v>
+      </c>
+      <c r="C65" t="s">
         <v>294</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>1072</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>157889627</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G65" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H65" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio e Distribuição</v>
+      </c>
+      <c r="I65" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Alimentos</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1184</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>PETR</v>
+      </c>
+      <c r="C66" t="s">
         <v>1185</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>1121</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>2684384823</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>3.8119999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H66" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I66" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1186</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>PETR</v>
+      </c>
+      <c r="C67" t="s">
         <v>1185</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>1083</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>4566441248</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H67" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I67" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1187</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>PRIO</v>
+      </c>
+      <c r="C68" t="s">
         <v>697</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>1072</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>839159130</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1.355</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G68" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H68" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I68" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1188</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>PETZ</v>
+      </c>
+      <c r="C69" t="s">
         <v>862</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>1072</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>335672329</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G69" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H69" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I69" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Produtos Diversos</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1189</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>POSI</v>
+      </c>
+      <c r="C70" t="s">
         <v>740</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>1072</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>73573028</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G70" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="H70" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Computadores e Equipamentos</v>
+      </c>
+      <c r="I70" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Computadores e Equipamentos</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1190</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>QUAL</v>
+      </c>
+      <c r="C71" t="s">
         <v>1191</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>1072</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>277039277</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Saúde</v>
+      </c>
+      <c r="H71" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+      <c r="I71" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1192</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>RADL</v>
+      </c>
+      <c r="C72" t="s">
         <v>1193</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>1106</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1196069386</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>1.4039999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G72" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Saúde</v>
+      </c>
+      <c r="H72" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio e Distribuição</v>
+      </c>
+      <c r="I72" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Medicamentos e Outros Produtos</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1194</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>RAIZ</v>
+      </c>
+      <c r="C73" t="s">
         <v>996</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>1195</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1246412032</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G73" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H73" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Agropecuária</v>
+      </c>
+      <c r="I73" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1196</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>RDOR</v>
+      </c>
+      <c r="C74" t="s">
         <v>891</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>1072</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>932048593</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1.3180000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G74" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Saúde</v>
+      </c>
+      <c r="H74" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+      <c r="I74" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Médico - Hospitalares, Análises e Diagnósticos</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1197</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>RAIL</v>
+      </c>
+      <c r="C75" t="s">
         <v>735</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>1072</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1215642613</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1.1240000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G75" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H75" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Transporte</v>
+      </c>
+      <c r="I75" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Transporte Ferroviário</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1198</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SBSP</v>
+      </c>
+      <c r="C76" t="s">
         <v>1199</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>1072</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>340002999</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H76" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Água e Saneamento</v>
+      </c>
+      <c r="I76" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Água e Saneamento</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1200</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SANB</v>
+      </c>
+      <c r="C77" t="s">
         <v>530</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>1201</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>355642848</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.48899999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G77" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H77" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="I77" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Bancos</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1202</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SMTO</v>
+      </c>
+      <c r="C78" t="s">
         <v>249</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>1072</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>143294210</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G78" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H78" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Alimentos Processados</v>
+      </c>
+      <c r="I78" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Açucar e Alcool</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1203</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>CSNA</v>
+      </c>
+      <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>1077</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>589695175</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G79" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H79" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Siderurgia e Metalurgia</v>
+      </c>
+      <c r="I79" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Siderurgia</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1204</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SLCE</v>
+      </c>
+      <c r="C80" t="s">
         <v>243</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>1072</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>96272020</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G80" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo não Cíclico</v>
+      </c>
+      <c r="H80" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Agropecuária</v>
+      </c>
+      <c r="I80" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1205</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SULA</v>
+      </c>
+      <c r="C81" t="s">
         <v>1206</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>1104</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>284059601</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Financeiro</v>
+      </c>
+      <c r="H81" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="I81" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Seguradoras</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1207</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>SUZB</v>
+      </c>
+      <c r="C82" t="s">
         <v>807</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>1072</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>726823001</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>1.905</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G82" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H82" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Madeira e Papel</v>
+      </c>
+      <c r="I82" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Papel e Celulose</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1208</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>TAEE</v>
+      </c>
+      <c r="C83" t="s">
         <v>1209</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>1104</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>218568234</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.38200000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G83" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Utilidade Pública</v>
+      </c>
+      <c r="H83" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="I83" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1210</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>VIVT</v>
+      </c>
+      <c r="C84" t="s">
         <v>634</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>1077</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>429455552</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Comunicações</v>
+      </c>
+      <c r="H84" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Telecomunicações</v>
+      </c>
+      <c r="I84" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1211</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>TIMS</v>
+      </c>
+      <c r="C85" t="s">
         <v>877</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>1072</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>808436195</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.51300000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G85" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Comunicações</v>
+      </c>
+      <c r="H85" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Telecomunicações</v>
+      </c>
+      <c r="I85" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Telecomunicações</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1212</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>TOTS</v>
+      </c>
+      <c r="C86" t="s">
         <v>1213</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>1072</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>519851955</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G86" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Tecnologia da Informação</v>
+      </c>
+      <c r="H86" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Programas e Serviços</v>
+      </c>
+      <c r="I86" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Programas e Serviços</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1214</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>UGPA</v>
+      </c>
+      <c r="C87" t="s">
         <v>1215</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>1072</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>1087887681</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.72199999999999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G87" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H87" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I87" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1216</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>USIM</v>
+      </c>
+      <c r="C88" t="s">
         <v>1217</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>1100</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>515014562</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G88" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H88" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Siderurgia e Metalurgia</v>
+      </c>
+      <c r="I88" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Siderurgia</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1218</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>VALE</v>
+      </c>
+      <c r="C89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>1072</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>4547296398</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>19.064</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G89" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Materiais Básicos</v>
+      </c>
+      <c r="H89" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Mineração</v>
+      </c>
+      <c r="I89" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Minerais Metálicos</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1219</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>VIIA</v>
+      </c>
+      <c r="C90" t="s">
         <v>1008</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>1072</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>1576975642</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G90" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H90" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Comércio</v>
+      </c>
+      <c r="I90" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Eletrodomésticos</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1220</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>VBBR</v>
+      </c>
+      <c r="C91" t="s">
         <v>1025</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>1072</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>1114442976</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.85899999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G91" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="H91" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="I91" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Exploração, Refino e Distribuição</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1221</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>WEGE</v>
+      </c>
+      <c r="C92" t="s">
         <v>1222</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>1072</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>1481593024</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>2.7280000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G92" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Bens Industriais</v>
+      </c>
+      <c r="H92" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Máquinas e Equipamentos</v>
+      </c>
+      <c r="I92" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Motores, Compressores e Outros</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1223</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="str">
+        <f>LEFT(IBOVDia_08_12_22[[#This Row],[codigo]],4)</f>
+        <v>YDUQ</v>
+      </c>
+      <c r="C93" t="s">
         <v>811</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>1072</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>296015511</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>0.157</v>
+      </c>
+      <c r="G93" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[setor])</f>
+        <v>Consumo Cíclico</v>
+      </c>
+      <c r="H93" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[subsetor])</f>
+        <v>Diversos</v>
+      </c>
+      <c r="I93" s="108" t="str">
+        <f>_xlfn.XLOOKUP(IBOVDia_08_12_22[[#This Row],[codigo_base]],Table3[codigo],Table3[segmento])</f>
+        <v>Serviços Educacionais</v>
       </c>
     </row>
   </sheetData>
@@ -22247,6 +26458,123 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AFF4A-AD01-45BA-BAB6-9FEA5BF8F716}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="109" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="110" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="108">
+        <v>2.4649999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="110" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="108">
+        <v>14.681000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="108">
+        <v>3.468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" s="108">
+        <v>9.532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="108">
+        <v>19.064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="110" t="s">
+        <v>647</v>
+      </c>
+      <c r="B9" s="108">
+        <v>2.7280000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="108">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="108">
+        <v>3.573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="110" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="108">
+        <v>3.1419999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="110" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B13" s="108">
+        <v>60.558000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
